--- a/Excel/edit_menu_remove_special.xlsx
+++ b/Excel/edit_menu_remove_special.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -97,79 +97,79 @@
     <t>&lt;  Back to: Edit Menu</t>
   </si>
   <si>
-    <t>मेनू संपादित करा: विशेष - ऑडसेट मॅन्युअल काढा</t>
-  </si>
-  <si>
-    <t>मेनू संपादित करा: विशेष काढा</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>स्पेशल कास्केडिंग एडिट मेनूमधील आयटम स्प्लिट कट आणि स्प्लिट डिलीटद्वारे ऑडिओ किंवा लेबल (किंवा लेबलसह ऑडिओ दोन्ही निवडले असल्यास) काढून टाका. या काढण्याच्या पद्धती निवडीच्या उजवीकडून ऑडिओ किंवा लेबलवर परिणाम करत नाहीत.</t>
-  </si>
-  <si>
-    <t>आपण केवळ लेबलेवर परिणाम करीत नाही, केवळ ऑडिओ शांत किंवा ट्रिम करू शकता.</t>
-  </si>
-  <si>
     <t>अधिक जाणून घेण्यासाठी प्रतिमेवर क्लिक करा</t>
   </si>
   <si>
     <t>मॅक वापरकर्ते: Ctrl = ⌘ आणि Alt = पर्याय. तर, उदाहरणार्थ, Ctrl + Alt + K = ⌘ + पर्याय + के</t>
   </si>
   <si>
-    <t>आपण ऑडिओ काढता किंवा पेस्ट करता तेव्हा संपादन बिंदूंवर क्लिक ऐकू येईल. हे वेव्हफॉर्ममध्ये डीसी ऑफसेटमुळे किंवा संपादनाच्या बिंदूंच्या चुकीच्या निवडीमुळे होऊ शकते. हे कसे हाताळायचे यासाठी हे संपादन वारंवार विचारले जाणारे प्रश्न पहा.</t>
-  </si>
-  <si>
-    <t>स्प्लिट कट Ctrl + Alt + X</t>
-  </si>
-  <si>
-    <t>संपादन&gt; कट प्रमाणेच, परंतु निवडीच्या उजवीकडील ऑडिओ डेटा किंवा लेबलपैकी कोणतेही स्थानांतरित केलेले नाही.</t>
-  </si>
-  <si>
-    <t>अशा प्रकारे ऑडिओ ट्रॅकमध्ये एक अंतर बाकी आहे जी विद्यमान ऑडिओ क्लिपला दोन क्लिपमध्ये विभाजित करते ज्यास टाइम शिफ्ट टूलचा वापर करून स्वतंत्रपणे हलविले जाऊ शकते.</t>
-  </si>
-  <si>
-    <t>ऑडिओसह स्प्लिट कट निवडले:</t>
-  </si>
-  <si>
-    <t>इतर लेबलांवर परिणाम न करता लेबलच्या गटाचे एक लेबल काढण्यासाठी ही उपयुक्त कमांड देखील आहे (आपण ऑडिओ तसेच लेबल कापू इच्छित नाही तोपर्यंत केवळ लेबल ट्रॅकमध्ये निवडण्याचे सुनिश्चित करा). हटविलेले विभाग खालील लेबले डावीकडील जात नाहीत. लेबले अद्याप समान ऑडिओ प्रदेशांशी संबंधित आहेत. लेबल ट्रॅकवरील इतर कोणत्याही लेबलांना प्रभावित न करता लेबल हटविण्याचा हा द्रुत मार्ग आहे.</t>
-  </si>
-  <si>
-    <t>लेबलसह विभाजित कट निवडले:</t>
-  </si>
-  <si>
-    <t>विभाजित करा हटवा Ctrl + Alt + K</t>
-  </si>
-  <si>
-    <t>संपादन म्हणून&gt; स्प्लिट कट सारखे परंतु ऑडिओ आणि / किंवा लेबले क्लिपबोर्डवर ठेवलेली नाहीत.</t>
-  </si>
-  <si>
-    <t>पुढील दोन कमांड्स निवडीतील ऑडिओवर परिणाम करतात परंतु निवडीमध्ये असलेल्या कोणत्याही लेबलांवर त्याचा परिणाम होत नाहीत.</t>
-  </si>
-  <si>
-    <t>सायलेन्स ऑडिओ सीटीआरएल + एल</t>
-  </si>
-  <si>
-    <t>निवडलेला ऑडिओ शांततेसह पुनर्स्थित करतो.</t>
-  </si>
-  <si>
-    <t>ट्रिम ऑडिओ Ctrl + टी</t>
-  </si>
-  <si>
-    <t>उर्वरित ऑडिओमधून स्वतःची क्लिप तयार करुन निवडलेला भाग वगळता सर्व क्लिप वरून विद्यमान क्लिपमधून काढली जाते. समान ट्रॅकमध्ये इतर स्वतंत्र क्लिप असल्यास त्या हटविल्या किंवा स्थानांतरित केल्या जात नाहीत.</t>
-  </si>
-  <si>
-    <t>निकालः उजवीकडे क्लिपमधील ऑडिओ अप्रभावित आहे.</t>
-  </si>
-  <si>
-    <t>जर संपूर्ण क्लिप (किंवा क्लिप) निवडली असेल तर ट्रॅकवरील इतर सर्व क्लिप हटविल्या जातील.</t>
-  </si>
-  <si>
     <t>&lt;परत: संपादन मेनू</t>
+  </si>
+  <si>
+    <t>संपादन मेनू  : विशेष काढा - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>संपादन मेनू  : विशेष काढा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>विशेष कास्केडिंग संपादन मेनूमधील घटक विभाजीत करून छेदा आणि विभाजीत करून हटवाद्वारे ध्वनी किंवा नावपट्टी (किंवा नावपट्टीसह ध्वनी दोन्ही निवडले असल्यास) काढून टाका. या काढण्याच्या पद्धती निवडीच्या उजवीकडून ध्वनी किंवा नावपट्टीवर परिणाम करत नाहीत.</t>
+  </si>
+  <si>
+    <t>आपण केवळ ध्वनी शांत किंवा ट्रिम करू शकता, नावपट्टीला प्रभावित करीत नाही.</t>
+  </si>
+  <si>
+    <t>आपण ध्वनी काढता किंवा चिटकवता तेव्हा संपादन बिंदूंवर क्लिक ऐकू येईल. हे तरंगरूपामध्ये डीसी ऑफसेटमुळे किंवा संपादनाच्या बिंदूंच्या चुकीच्या निवडीमुळे होऊ शकते. हे कसे हाताळायचे यासाठी हे संपादन वारंवार विचारले जाणारे प्रश्न पहा.</t>
+  </si>
+  <si>
+    <t>संपादन&gt; कापून घ्या  प्रमाणेच, परंतु निवडीच्या उजवीकडील ध्वनीची माहिती किंवा नावपट्टीपैकी कोणतेही स्थानांतरित केलेले नाही.</t>
+  </si>
+  <si>
+    <t>अशा प्रकारे ध्वनिपट्टामध्ये एक अंतर बाकी आहे जी विद्यमान ध्वनी फितीला दोन फितीमध्ये विभाजित करते ज्यास टाइम शिफ्ट टूलचा वापर करून स्वतंत्रपणे हलविले जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>विभाजीत करुन कापून घ्या Ctrl + Alt + X</t>
+  </si>
+  <si>
+    <t>इतर नावपट्टीवर परिणाम न करता नावपट्टीच्या गटाचे एक नावपट्टी काढण्यासाठी ही उपयुक्त आज्ञा देखील आहे (आपण ध्वनी तसेच नावपट्टी कापू इच्छित नाही तोपर्यंत केवळ नावपट्टीच्या पट्ट्यामध्ये निवडण्याचे सुनिश्चित करा). हटविलेले विभाग खालील नावपट्टी डावीकडील जात नाहीत. नावपट्टी अद्याप समान ध्वनी प्रदेशांशी संबंधित आहेत. नावपट्टीच्या पट्ट्यावरील इतर कोणत्याही लेबलांना प्रभावित न करता नावपट्टी हटविण्याचा हा द्रुत मार्ग आहे.</t>
+  </si>
+  <si>
+    <t>निवडलेल्या नावपट्टीसह विभाजीत करुन कापून घ्या:</t>
+  </si>
+  <si>
+    <t>निवडलेल्या ध्वनीसह विभाजीत करुन कापून घ्या</t>
+  </si>
+  <si>
+    <t>विभाजीत करुन हटवा Ctrl + Alt + K</t>
+  </si>
+  <si>
+    <t>संपादन &gt; विभाजीत करुन कापून घ्या सारखे परंतु ध्वनी आणि / किंवा नावपट्टी क्लिपबोर्डवर ठेवलेली नाहीत.</t>
+  </si>
+  <si>
+    <t>ध्वनी शांत करा Ctrl + L</t>
+  </si>
+  <si>
+    <t>पुढील दोन आज्ञा निवडीतील ध्वनीवर परिणाम करतात परंतु निवडीमध्ये असलेल्या कोणत्याही नावपट्टीवर त्याचा परिणाम होत नाहीत.</t>
+  </si>
+  <si>
+    <t>निवडलेला ध्वनी शांततेसह पुनर्स्थित करतो.</t>
+  </si>
+  <si>
+    <t>ध्वनी ट्रिम करा Ctrl + T</t>
+  </si>
+  <si>
+    <t>उर्वरित ध्वनीमधून स्वतःची फित तयार करुन निवडलेला भाग वगळता सर्व फितीवरून विद्यमान फितीमधून काढली जाते. समान गीतपट्टामध्ये इतर स्वतंत्र फित असल्यास त्या हटविल्या किंवा स्थानांतरित केल्या जात नाहीत.</t>
+  </si>
+  <si>
+    <t>निकालः उजवीकडे फितीमधील ध्वनी अप्रभावित आहे.</t>
+  </si>
+  <si>
+    <t>जर संपूर्ण फित (किंवा फित) निवडली असेल तर गीतपट्टावरील इतर सर्व फित हटविल्या जातील.</t>
   </si>
 </sst>
 </file>
@@ -228,11 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,9 +530,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="76" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -549,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -681,7 +688,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -691,7 +698,7 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -714,7 +721,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +732,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +743,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -758,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +776,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +787,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +798,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +809,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +820,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
